--- a/backend/uploads/ExtractedFiles/12.03.24/1250.xlsx
+++ b/backend/uploads/ExtractedFiles/12.03.24/1250.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>Emp_code</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="A16" sqref="A16:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,6 +801,75 @@
         <v>9.4700000000000006</v>
       </c>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1250</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45363</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E17" s="2">
+        <v>18.23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45364</v>
+      </c>
+      <c r="D18" s="2">
+        <v>9.17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18.37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1250</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45365</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9.32</v>
+      </c>
+      <c r="E19" s="2">
+        <v>18.47</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2">
+        <v>9.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
